--- a/Experimentelles/Ausgewaehlte_Daten/LiS/PEIS/IS_Auswertung_LiS.xlsx
+++ b/Experimentelles/Ausgewaehlte_Daten/LiS/PEIS/IS_Auswertung_LiS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wiwi-Admin\Documents\GitHub\thesis\Experimentelles\Ausgewaehlte_Daten\LiS\PEIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toph\Documents\GitHub\thesis\Experimentelles\Ausgewaehlte_Daten\LiS\PEIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Freq</t>
   </si>
@@ -86,33 +87,6 @@
     <t>25°C</t>
   </si>
   <si>
-    <t>3.348000D+01</t>
-  </si>
-  <si>
-    <t>3.044000D+01</t>
-  </si>
-  <si>
-    <t>6.327800D-07</t>
-  </si>
-  <si>
-    <t>8.900000D+00</t>
-  </si>
-  <si>
-    <t>7.059800D-06</t>
-  </si>
-  <si>
-    <t>5.215000D+00</t>
-  </si>
-  <si>
-    <t>7.251200D-07</t>
-  </si>
-  <si>
-    <t>1.129000D+02</t>
-  </si>
-  <si>
-    <t>3.541000D+00</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -146,9 +120,6 @@
     <t>Wo1 - P</t>
   </si>
   <si>
-    <t>3.232300D-01</t>
-  </si>
-  <si>
     <t>Ersatzschaltbild</t>
   </si>
   <si>
@@ -162,6 +133,60 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>freq/Hz</t>
+  </si>
+  <si>
+    <t>Re(Z)/Ohm</t>
+  </si>
+  <si>
+    <t>-Im(Z)/Ohm</t>
+  </si>
+  <si>
+    <t>|Z|/Ohm</t>
+  </si>
+  <si>
+    <t>Phase(Z)/deg</t>
+  </si>
+  <si>
+    <t>time/s</t>
+  </si>
+  <si>
+    <t>&lt;Ewe&gt;/V</t>
+  </si>
+  <si>
+    <t>&lt;I&gt;/mA</t>
+  </si>
+  <si>
+    <t>Cs/µF</t>
+  </si>
+  <si>
+    <t>Cp/µF</t>
+  </si>
+  <si>
+    <t>cycle number</t>
+  </si>
+  <si>
+    <t>I Range</t>
+  </si>
+  <si>
+    <t>|Ewe|/V</t>
+  </si>
+  <si>
+    <t>|I|/A</t>
+  </si>
+  <si>
+    <t>Re(Y)/Ohm-1</t>
+  </si>
+  <si>
+    <t>Im(Y)/Ohm-1</t>
+  </si>
+  <si>
+    <t>|Y|/Ohm-1</t>
+  </si>
+  <si>
+    <t>Phase(Y)/deg</t>
   </si>
 </sst>
 </file>
@@ -245,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,6 +279,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -399,100 +425,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>40.628999999999998</c:v>
+                  <c:v>30.360261900000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.262999999999998</c:v>
+                  <c:v>28.093370400000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.847000000000001</c:v>
+                  <c:v>28.6703644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.872999999999998</c:v>
+                  <c:v>29.667715099999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.18</c:v>
+                  <c:v>30.836381899999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.756999999999998</c:v>
+                  <c:v>31.9830799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.616999999999997</c:v>
+                  <c:v>33.181903800000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.447000000000003</c:v>
+                  <c:v>34.474269900000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.883000000000003</c:v>
+                  <c:v>36.203174599999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.996000000000002</c:v>
+                  <c:v>38.590976699999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.072000000000003</c:v>
+                  <c:v>41.647724199999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.451000000000001</c:v>
+                  <c:v>45.662540399999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>53.137999999999998</c:v>
+                  <c:v>50.3735809</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59.636000000000003</c:v>
+                  <c:v>55.139865899999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.150999999999996</c:v>
+                  <c:v>59.361419699999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.512</c:v>
+                  <c:v>62.367988599999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.447999999999993</c:v>
+                  <c:v>64.5579453</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78.212000000000003</c:v>
+                  <c:v>66.020813000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.100999999999999</c:v>
+                  <c:v>67.075309799999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81.495999999999995</c:v>
+                  <c:v>67.939277599999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>82.573999999999998</c:v>
+                  <c:v>68.747337299999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83.51</c:v>
+                  <c:v>69.456352199999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>84.426000000000002</c:v>
+                  <c:v>70.195899999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>85.317999999999998</c:v>
+                  <c:v>70.930519099999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>86.212999999999994</c:v>
+                  <c:v>71.745735199999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>87.230999999999995</c:v>
+                  <c:v>72.684028600000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>88.372</c:v>
+                  <c:v>73.905998199999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>89.673000000000002</c:v>
+                  <c:v>75.387611399999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>91.259</c:v>
+                  <c:v>77.188339200000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>93.051000000000002</c:v>
+                  <c:v>79.419753999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>95.311999999999998</c:v>
+                  <c:v>82.129264800000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>97.875</c:v>
+                  <c:v>85.529128999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>88.984367399999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94.1628647</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>102.889915</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>111.78733800000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>121.04549400000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,320 +545,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>13.052</c:v>
+                  <c:v>4.4180474299999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7084999999999999</c:v>
+                  <c:v>-0.87304800699999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22700999999999999</c:v>
+                  <c:v>-2.9047184000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.2399</c:v>
+                  <c:v>-3.9527595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.4348000000000001</c:v>
+                  <c:v>-4.7637386299999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.6911</c:v>
+                  <c:v>-5.4837737100000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.1429</c:v>
+                  <c:v>-6.2804112400000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6.8293999999999997</c:v>
+                  <c:v>-7.6173701300000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.9575999999999993</c:v>
+                  <c:v>-9.0479154600000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-11.442</c:v>
+                  <c:v>-10.9086885</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-14.234</c:v>
+                  <c:v>-12.6877069</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-17.042000000000002</c:v>
+                  <c:v>-14.082596799999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-19.22</c:v>
+                  <c:v>-14.7589407</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-19.891999999999999</c:v>
+                  <c:v>-14.1569252</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-18.838000000000001</c:v>
+                  <c:v>-12.4455557</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-16.532</c:v>
+                  <c:v>-10.4095373</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-13.775</c:v>
+                  <c:v>-8.4516601599999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-11.167</c:v>
+                  <c:v>-6.8610148400000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-9.0693999999999999</c:v>
+                  <c:v>-5.6977267300000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.4789000000000003</c:v>
+                  <c:v>-4.9208197599999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-6.4051</c:v>
+                  <c:v>-4.5110750199999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-5.7321999999999997</c:v>
+                  <c:v>-4.2898778899999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5.3112000000000004</c:v>
+                  <c:v>-4.3755755399999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-5.2138999999999998</c:v>
+                  <c:v>-4.6877455699999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-5.2887000000000004</c:v>
+                  <c:v>-5.2938957200000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-5.6139999999999999</c:v>
+                  <c:v>-6.2162094100000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-6.1748000000000003</c:v>
+                  <c:v>-7.4313120799999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-6.8109999999999999</c:v>
+                  <c:v>-9.0243396800000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-7.6600999999999999</c:v>
+                  <c:v>-11.148417500000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.5713000000000008</c:v>
+                  <c:v>-13.8028984</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.6622000000000003</c:v>
+                  <c:v>-16.997404100000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-10.337999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$M$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$N$31:$N$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>34.396999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.744</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.347999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36.360999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.912999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40.081000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43.070999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47.341000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53.116999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>59.734999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>66.167000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71.370999999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>75.373999999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>78.277000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>80.269000000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>81.614000000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>82.613</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>83.474999999999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>84.316999999999993</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>85.203999999999994</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>86.18</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>87.263000000000005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>88.495000000000005</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>89.881</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>91.447999999999993</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>93.213999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>95.228999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$O$31:$O$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>-2.6320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.6739999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5.0743999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6.8522999999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-8.9566999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-11.364000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-14.124000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-17.033000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-19.257000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-19.835999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-18.622</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-16.375</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-13.769</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-11.194000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-8.9480000000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-7.2525000000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-6.109</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-5.4295</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-5.1177000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-5.0877999999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-5.2774999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-5.6432000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-6.1661000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-6.8281000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-7.6254999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-8.5577000000000005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-9.6432000000000002</c:v>
+                  <c:v>-21.624689100000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-26.2482243</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-33.331226299999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-42.998691600000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-58.762134600000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-74.595062299999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,13 +668,96 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-535553312"/>
-        <c:axId val="-535545152"/>
+        <c:axId val="190081424"/>
+        <c:axId val="190081808"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$M$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Fit</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$N$31:$N$57</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$O$31:$O$58</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="28"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-535553312"/>
+        <c:axId val="190081424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="190"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -915,7 +834,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -949,13 +868,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-535545152"/>
+        <c:crossAx val="190081808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-535545152"/>
+        <c:axId val="190081808"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1068,7 +987,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-535553312"/>
+        <c:crossAx val="190081424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -1786,9 +1705,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1826,7 +1745,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1898,7 +1817,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2048,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V62"/>
+  <dimension ref="B2:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,7 +1987,7 @@
     </row>
     <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2102,121 +2021,92 @@
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -2292,19 +2182,19 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>1000024</v>
+        <v>1000024.25</v>
       </c>
       <c r="C31">
-        <v>40.628999999999998</v>
+        <v>30.360261900000001</v>
       </c>
       <c r="D31">
-        <v>13.052</v>
+        <v>4.4180474299999997</v>
       </c>
       <c r="E31">
-        <v>42.673999999999999</v>
+        <v>30.6800365</v>
       </c>
       <c r="F31">
-        <v>17.809999999999999</v>
+        <v>8.2796068199999997</v>
       </c>
       <c r="G31">
         <v>2.3138000000000001</v>
@@ -2320,36 +2210,6 @@
       </c>
       <c r="K31">
         <v>10</v>
-      </c>
-      <c r="M31">
-        <v>215441.9</v>
-      </c>
-      <c r="N31">
-        <v>34.396999999999998</v>
-      </c>
-      <c r="O31">
-        <v>-2.6320000000000001</v>
-      </c>
-      <c r="P31">
-        <v>34.497</v>
-      </c>
-      <c r="Q31">
-        <v>-4.3757000000000001</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
@@ -2357,16 +2217,16 @@
         <v>681286.5</v>
       </c>
       <c r="C32">
-        <v>34.262999999999998</v>
+        <v>28.093370400000001</v>
       </c>
       <c r="D32">
-        <v>2.7084999999999999</v>
+        <v>-0.87304800699999996</v>
       </c>
       <c r="E32">
-        <v>34.369</v>
+        <v>28.106933600000001</v>
       </c>
       <c r="F32">
-        <v>4.5198999999999998</v>
+        <v>-1.7799882899999999</v>
       </c>
       <c r="G32">
         <v>2.3140000000000001</v>
@@ -2383,52 +2243,22 @@
       <c r="K32">
         <v>10</v>
       </c>
-      <c r="M32">
-        <v>146777.29999999999</v>
-      </c>
-      <c r="N32">
-        <v>34.744</v>
-      </c>
-      <c r="O32">
-        <v>-3.6739999999999999</v>
-      </c>
-      <c r="P32">
-        <v>34.938000000000002</v>
-      </c>
-      <c r="Q32">
-        <v>-6.0362999999999998</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>464160.1</v>
+        <v>464160.125</v>
       </c>
       <c r="C33">
-        <v>33.847000000000001</v>
+        <v>28.6703644</v>
       </c>
       <c r="D33">
-        <v>0.22700999999999999</v>
+        <v>-2.9047184000000001</v>
       </c>
       <c r="E33">
-        <v>33.847000000000001</v>
+        <v>28.817132900000001</v>
       </c>
       <c r="F33">
-        <v>0.38428000000000001</v>
+        <v>-5.7851429000000003</v>
       </c>
       <c r="G33">
         <v>2.3142</v>
@@ -2445,52 +2275,22 @@
       <c r="K33">
         <v>10</v>
       </c>
-      <c r="M33">
-        <v>100024.4</v>
-      </c>
-      <c r="N33">
-        <v>35.347999999999999</v>
-      </c>
-      <c r="O33">
-        <v>-5.0743999999999998</v>
-      </c>
-      <c r="P33">
-        <v>35.71</v>
-      </c>
-      <c r="Q33">
-        <v>-8.1692999999999998</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>3</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>316223.09999999998</v>
+        <v>316223.09399999998</v>
       </c>
       <c r="C34">
-        <v>33.872999999999998</v>
+        <v>29.667715099999999</v>
       </c>
       <c r="D34">
-        <v>-1.2399</v>
+        <v>-3.9527595</v>
       </c>
       <c r="E34">
-        <v>33.896000000000001</v>
+        <v>29.929878200000001</v>
       </c>
       <c r="F34">
-        <v>-2.0962999999999998</v>
+        <v>-7.5890727</v>
       </c>
       <c r="G34">
         <v>2.3142999999999998</v>
@@ -2507,52 +2307,22 @@
       <c r="K34">
         <v>10</v>
       </c>
-      <c r="M34">
-        <v>68127.429999999993</v>
-      </c>
-      <c r="N34">
-        <v>36.360999999999997</v>
-      </c>
-      <c r="O34">
-        <v>-6.8522999999999996</v>
-      </c>
-      <c r="P34">
-        <v>37.000999999999998</v>
-      </c>
-      <c r="Q34">
-        <v>-10.672000000000001</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>4</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>215441.9</v>
+        <v>215441.859</v>
       </c>
       <c r="C35">
-        <v>34.18</v>
+        <v>30.836381899999999</v>
       </c>
       <c r="D35">
-        <v>-2.4348000000000001</v>
+        <v>-4.7637386299999998</v>
       </c>
       <c r="E35">
-        <v>34.265999999999998</v>
+        <v>31.202173200000001</v>
       </c>
       <c r="F35">
-        <v>-4.0746000000000002</v>
+        <v>-8.78187943</v>
       </c>
       <c r="G35">
         <v>2.3142999999999998</v>
@@ -2569,52 +2339,22 @@
       <c r="K35">
         <v>10</v>
       </c>
-      <c r="M35">
-        <v>46411.13</v>
-      </c>
-      <c r="N35">
-        <v>37.912999999999997</v>
-      </c>
-      <c r="O35">
-        <v>-8.9566999999999997</v>
-      </c>
-      <c r="P35">
-        <v>38.957000000000001</v>
-      </c>
-      <c r="Q35">
-        <v>-13.292</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>5</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>146777.29999999999</v>
+        <v>146777.32800000001</v>
       </c>
       <c r="C36">
-        <v>34.756999999999998</v>
+        <v>31.9830799</v>
       </c>
       <c r="D36">
-        <v>-3.6911</v>
+        <v>-5.4837737100000004</v>
       </c>
       <c r="E36">
-        <v>34.951999999999998</v>
+        <v>32.449794799999999</v>
       </c>
       <c r="F36">
-        <v>-6.0618999999999996</v>
+        <v>-9.7292489999999994</v>
       </c>
       <c r="G36">
         <v>2.3144</v>
@@ -2631,52 +2371,22 @@
       <c r="K36">
         <v>10</v>
       </c>
-      <c r="M36">
-        <v>31628.41</v>
-      </c>
-      <c r="N36">
-        <v>40.081000000000003</v>
-      </c>
-      <c r="O36">
-        <v>-11.364000000000001</v>
-      </c>
-      <c r="P36">
-        <v>41.661000000000001</v>
-      </c>
-      <c r="Q36">
-        <v>-15.829000000000001</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>6</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>100024.4</v>
+        <v>100024.406</v>
       </c>
       <c r="C37">
-        <v>35.616999999999997</v>
+        <v>33.181903800000001</v>
       </c>
       <c r="D37">
-        <v>-5.1429</v>
+        <v>-6.2804112400000003</v>
       </c>
       <c r="E37">
-        <v>35.985999999999997</v>
+        <v>33.771026599999999</v>
       </c>
       <c r="F37">
-        <v>-8.2164999999999999</v>
+        <v>-10.717714300000001</v>
       </c>
       <c r="G37">
         <v>2.3142</v>
@@ -2693,52 +2403,22 @@
       <c r="K37">
         <v>10</v>
       </c>
-      <c r="M37">
-        <v>21545.41</v>
-      </c>
-      <c r="N37">
-        <v>43.070999999999998</v>
-      </c>
-      <c r="O37">
-        <v>-14.124000000000001</v>
-      </c>
-      <c r="P37">
-        <v>45.328000000000003</v>
-      </c>
-      <c r="Q37">
-        <v>-18.155999999999999</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>7</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>68127.429999999993</v>
+        <v>68127.429699999993</v>
       </c>
       <c r="C38">
-        <v>36.447000000000003</v>
+        <v>34.474269900000003</v>
       </c>
       <c r="D38">
-        <v>-6.8293999999999997</v>
+        <v>-7.6173701300000003</v>
       </c>
       <c r="E38">
-        <v>37.081000000000003</v>
+        <v>35.3058014</v>
       </c>
       <c r="F38">
-        <v>-10.613</v>
+        <v>-12.459770199999999</v>
       </c>
       <c r="G38">
         <v>2.3144</v>
@@ -2755,52 +2435,22 @@
       <c r="K38">
         <v>10</v>
       </c>
-      <c r="M38">
-        <v>14672.85</v>
-      </c>
-      <c r="N38">
-        <v>47.341000000000001</v>
-      </c>
-      <c r="O38">
-        <v>-17.033000000000001</v>
-      </c>
-      <c r="P38">
-        <v>50.311999999999998</v>
-      </c>
-      <c r="Q38">
-        <v>-19.788</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>8</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>46411.13</v>
+        <v>46411.125</v>
       </c>
       <c r="C39">
-        <v>37.883000000000003</v>
+        <v>36.203174599999997</v>
       </c>
       <c r="D39">
-        <v>-8.9575999999999993</v>
+        <v>-9.0479154600000005</v>
       </c>
       <c r="E39">
-        <v>38.927</v>
+        <v>37.316680900000001</v>
       </c>
       <c r="F39">
-        <v>-13.304</v>
+        <v>-14.031955699999999</v>
       </c>
       <c r="G39">
         <v>2.3144</v>
@@ -2817,52 +2467,22 @@
       <c r="K39">
         <v>10</v>
       </c>
-      <c r="M39">
-        <v>10015.27</v>
-      </c>
-      <c r="N39">
-        <v>53.116999999999997</v>
-      </c>
-      <c r="O39">
-        <v>-19.257000000000001</v>
-      </c>
-      <c r="P39">
-        <v>56.5</v>
-      </c>
-      <c r="Q39">
-        <v>-19.927</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>9</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>31628.41</v>
+        <v>31628.412100000001</v>
       </c>
       <c r="C40">
-        <v>39.996000000000002</v>
+        <v>38.590976699999999</v>
       </c>
       <c r="D40">
-        <v>-11.442</v>
+        <v>-10.9086885</v>
       </c>
       <c r="E40">
-        <v>41.600999999999999</v>
+        <v>40.103153200000001</v>
       </c>
       <c r="F40">
-        <v>-15.965</v>
+        <v>-15.784249300000001</v>
       </c>
       <c r="G40">
         <v>2.3144</v>
@@ -2879,52 +2499,22 @@
       <c r="K40">
         <v>10</v>
       </c>
-      <c r="M40">
-        <v>6856.0020000000004</v>
-      </c>
-      <c r="N40">
-        <v>59.734999999999999</v>
-      </c>
-      <c r="O40">
-        <v>-19.835999999999999</v>
-      </c>
-      <c r="P40">
-        <v>62.942</v>
-      </c>
-      <c r="Q40">
-        <v>-18.37</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>10</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>21545.41</v>
+        <v>21545.408200000002</v>
       </c>
       <c r="C41">
-        <v>43.072000000000003</v>
+        <v>41.647724199999999</v>
       </c>
       <c r="D41">
-        <v>-14.234</v>
+        <v>-12.6877069</v>
       </c>
       <c r="E41">
-        <v>45.363</v>
+        <v>43.537464100000001</v>
       </c>
       <c r="F41">
-        <v>-18.286999999999999</v>
+        <v>-16.943014099999999</v>
       </c>
       <c r="G41">
         <v>2.3144</v>
@@ -2941,52 +2531,22 @@
       <c r="K41">
         <v>10</v>
       </c>
-      <c r="M41">
-        <v>4642.4269999999997</v>
-      </c>
-      <c r="N41">
-        <v>66.167000000000002</v>
-      </c>
-      <c r="O41">
-        <v>-18.622</v>
-      </c>
-      <c r="P41">
-        <v>68.736999999999995</v>
-      </c>
-      <c r="Q41">
-        <v>-15.718</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>11</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>14672.85</v>
+        <v>14672.8496</v>
       </c>
       <c r="C42">
-        <v>47.451000000000001</v>
+        <v>45.662540399999997</v>
       </c>
       <c r="D42">
-        <v>-17.042000000000002</v>
+        <v>-14.082596799999999</v>
       </c>
       <c r="E42">
-        <v>50.418999999999997</v>
+        <v>47.7848015</v>
       </c>
       <c r="F42">
-        <v>-19.756</v>
+        <v>-17.140071899999999</v>
       </c>
       <c r="G42">
         <v>2.3144</v>
@@ -3003,52 +2563,22 @@
       <c r="K42">
         <v>11</v>
       </c>
-      <c r="M42">
-        <v>3160.056</v>
-      </c>
-      <c r="N42">
-        <v>71.370999999999995</v>
-      </c>
-      <c r="O42">
-        <v>-16.375</v>
-      </c>
-      <c r="P42">
-        <v>73.225999999999999</v>
-      </c>
-      <c r="Q42">
-        <v>-12.922000000000001</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>12</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>10015.27</v>
+        <v>10015.270500000001</v>
       </c>
       <c r="C43">
-        <v>53.137999999999998</v>
+        <v>50.3735809</v>
       </c>
       <c r="D43">
-        <v>-19.22</v>
+        <v>-14.7589407</v>
       </c>
       <c r="E43">
-        <v>56.506999999999998</v>
+        <v>52.491180399999998</v>
       </c>
       <c r="F43">
-        <v>-19.885000000000002</v>
+        <v>-16.330041900000001</v>
       </c>
       <c r="G43">
         <v>2.3144</v>
@@ -3065,52 +2595,22 @@
       <c r="K43">
         <v>11</v>
       </c>
-      <c r="M43">
-        <v>2152.933</v>
-      </c>
-      <c r="N43">
-        <v>75.373999999999995</v>
-      </c>
-      <c r="O43">
-        <v>-13.769</v>
-      </c>
-      <c r="P43">
-        <v>76.622</v>
-      </c>
-      <c r="Q43">
-        <v>-10.352</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>13</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>6856.0020000000004</v>
+        <v>6856.0024400000002</v>
       </c>
       <c r="C44">
-        <v>59.636000000000003</v>
+        <v>55.139865899999997</v>
       </c>
       <c r="D44">
-        <v>-19.891999999999999</v>
+        <v>-14.1569252</v>
       </c>
       <c r="E44">
-        <v>62.866</v>
+        <v>56.928230300000003</v>
       </c>
       <c r="F44">
-        <v>-18.446999999999999</v>
+        <v>-14.3994284</v>
       </c>
       <c r="G44">
         <v>2.3144</v>
@@ -3127,52 +2627,22 @@
       <c r="K44">
         <v>11</v>
       </c>
-      <c r="M44">
-        <v>1468.59</v>
-      </c>
-      <c r="N44">
-        <v>78.277000000000001</v>
-      </c>
-      <c r="O44">
-        <v>-11.194000000000001</v>
-      </c>
-      <c r="P44">
-        <v>79.072999999999993</v>
-      </c>
-      <c r="Q44">
-        <v>-8.1385000000000005</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>14</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>4642.4269999999997</v>
+        <v>4642.4272499999997</v>
       </c>
       <c r="C45">
-        <v>66.150999999999996</v>
+        <v>59.361419699999999</v>
       </c>
       <c r="D45">
-        <v>-18.838000000000001</v>
+        <v>-12.4455557</v>
       </c>
       <c r="E45">
-        <v>68.781000000000006</v>
+        <v>60.652038599999997</v>
       </c>
       <c r="F45">
-        <v>-15.896000000000001</v>
+        <v>-11.840972900000001</v>
       </c>
       <c r="G45">
         <v>2.3144</v>
@@ -3189,52 +2659,22 @@
       <c r="K45">
         <v>11</v>
       </c>
-      <c r="M45">
-        <v>999.04039999999998</v>
-      </c>
-      <c r="N45">
-        <v>80.269000000000005</v>
-      </c>
-      <c r="O45">
-        <v>-8.9480000000000004</v>
-      </c>
-      <c r="P45">
-        <v>80.766000000000005</v>
-      </c>
-      <c r="Q45">
-        <v>-6.3608000000000002</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>15</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>3160.056</v>
+        <v>3160.05566</v>
       </c>
       <c r="C46">
-        <v>71.512</v>
+        <v>62.367988599999997</v>
       </c>
       <c r="D46">
-        <v>-16.532</v>
+        <v>-10.4095373</v>
       </c>
       <c r="E46">
-        <v>73.397999999999996</v>
+        <v>63.230724299999999</v>
       </c>
       <c r="F46">
-        <v>-13.016999999999999</v>
+        <v>-9.4756155</v>
       </c>
       <c r="G46">
         <v>2.3144</v>
@@ -3251,52 +2691,22 @@
       <c r="K46">
         <v>11</v>
       </c>
-      <c r="M46">
-        <v>681.08969999999999</v>
-      </c>
-      <c r="N46">
-        <v>81.614000000000004</v>
-      </c>
-      <c r="O46">
-        <v>-7.2525000000000004</v>
-      </c>
-      <c r="P46">
-        <v>81.935000000000002</v>
-      </c>
-      <c r="Q46">
-        <v>-5.0781999999999998</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>16</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>2152.933</v>
+        <v>2152.9328599999999</v>
       </c>
       <c r="C47">
-        <v>75.447999999999993</v>
+        <v>64.5579453</v>
       </c>
       <c r="D47">
-        <v>-13.775</v>
+        <v>-8.4516601599999994</v>
       </c>
       <c r="E47">
-        <v>76.695999999999998</v>
+        <v>65.108825699999997</v>
       </c>
       <c r="F47">
-        <v>-10.347</v>
+        <v>-7.4585094500000002</v>
       </c>
       <c r="G47">
         <v>2.3144</v>
@@ -3313,52 +2723,22 @@
       <c r="K47">
         <v>11</v>
       </c>
-      <c r="M47">
-        <v>464.5539</v>
-      </c>
-      <c r="N47">
-        <v>82.613</v>
-      </c>
-      <c r="O47">
-        <v>-6.109</v>
-      </c>
-      <c r="P47">
-        <v>82.837999999999994</v>
-      </c>
-      <c r="Q47">
-        <v>-4.2291999999999996</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>17</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>1468.59</v>
+        <v>1468.5897199999999</v>
       </c>
       <c r="C48">
-        <v>78.212000000000003</v>
+        <v>66.020813000000004</v>
       </c>
       <c r="D48">
-        <v>-11.167</v>
+        <v>-6.8610148400000002</v>
       </c>
       <c r="E48">
-        <v>79.006</v>
+        <v>66.376357999999996</v>
       </c>
       <c r="F48">
-        <v>-8.1258999999999997</v>
+        <v>-5.9329953199999999</v>
       </c>
       <c r="G48">
         <v>2.3144</v>
@@ -3375,52 +2755,22 @@
       <c r="K48">
         <v>11</v>
       </c>
-      <c r="M48">
-        <v>316.31580000000002</v>
-      </c>
-      <c r="N48">
-        <v>83.474999999999994</v>
-      </c>
-      <c r="O48">
-        <v>-5.4295</v>
-      </c>
-      <c r="P48">
-        <v>83.652000000000001</v>
-      </c>
-      <c r="Q48">
-        <v>-3.7214999999999998</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>18</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>999.04039999999998</v>
+        <v>999.04040499999996</v>
       </c>
       <c r="C49">
-        <v>80.100999999999999</v>
+        <v>67.075309799999999</v>
       </c>
       <c r="D49">
-        <v>-9.0693999999999999</v>
+        <v>-5.6977267300000003</v>
       </c>
       <c r="E49">
-        <v>80.613</v>
+        <v>67.316871599999999</v>
       </c>
       <c r="F49">
-        <v>-6.4598000000000004</v>
+        <v>-4.8553466800000002</v>
       </c>
       <c r="G49">
         <v>2.3144</v>
@@ -3437,52 +2787,22 @@
       <c r="K49">
         <v>11</v>
       </c>
-      <c r="M49">
-        <v>215.34450000000001</v>
-      </c>
-      <c r="N49">
-        <v>84.316999999999993</v>
-      </c>
-      <c r="O49">
-        <v>-5.1177000000000001</v>
-      </c>
-      <c r="P49">
-        <v>84.471999999999994</v>
-      </c>
-      <c r="Q49">
-        <v>-3.4733000000000001</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>19</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>681.08969999999999</v>
+        <v>681.08966099999998</v>
       </c>
       <c r="C50">
-        <v>81.495999999999995</v>
+        <v>67.939277599999997</v>
       </c>
       <c r="D50">
-        <v>-7.4789000000000003</v>
+        <v>-4.9208197599999997</v>
       </c>
       <c r="E50">
-        <v>81.837999999999994</v>
+        <v>68.117248500000002</v>
       </c>
       <c r="F50">
-        <v>-5.2434000000000003</v>
+        <v>-4.14268064</v>
       </c>
       <c r="G50">
         <v>2.3144</v>
@@ -3499,52 +2819,22 @@
       <c r="K50">
         <v>11</v>
       </c>
-      <c r="M50">
-        <v>146.7373</v>
-      </c>
-      <c r="N50">
-        <v>85.203999999999994</v>
-      </c>
-      <c r="O50">
-        <v>-5.0877999999999997</v>
-      </c>
-      <c r="P50">
-        <v>85.355999999999995</v>
-      </c>
-      <c r="Q50">
-        <v>-3.4171999999999998</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>20</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>464.5539</v>
+        <v>464.55389400000001</v>
       </c>
       <c r="C51">
-        <v>82.573999999999998</v>
+        <v>68.747337299999998</v>
       </c>
       <c r="D51">
-        <v>-6.4051</v>
+        <v>-4.5110750199999998</v>
       </c>
       <c r="E51">
-        <v>82.822000000000003</v>
+        <v>68.8951797</v>
       </c>
       <c r="F51">
-        <v>-4.4353999999999996</v>
+        <v>-3.75426269</v>
       </c>
       <c r="G51">
         <v>2.3144</v>
@@ -3561,52 +2851,22 @@
       <c r="K51">
         <v>11</v>
       </c>
-      <c r="M51">
-        <v>99.904039999999995</v>
-      </c>
-      <c r="N51">
-        <v>86.18</v>
-      </c>
-      <c r="O51">
-        <v>-5.2774999999999999</v>
-      </c>
-      <c r="P51">
-        <v>86.340999999999994</v>
-      </c>
-      <c r="Q51">
-        <v>-3.5043000000000002</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>21</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>316.31580000000002</v>
+        <v>316.315765</v>
       </c>
       <c r="C52">
-        <v>83.51</v>
+        <v>69.456352199999998</v>
       </c>
       <c r="D52">
-        <v>-5.7321999999999997</v>
+        <v>-4.2898778899999996</v>
       </c>
       <c r="E52">
-        <v>83.706999999999994</v>
+        <v>69.588706999999999</v>
       </c>
       <c r="F52">
-        <v>-3.9266999999999999</v>
+        <v>-3.5343070000000001</v>
       </c>
       <c r="G52">
         <v>2.3144</v>
@@ -3623,52 +2883,22 @@
       <c r="K52">
         <v>11</v>
       </c>
-      <c r="M52">
-        <v>68.188900000000004</v>
-      </c>
-      <c r="N52">
-        <v>87.263000000000005</v>
-      </c>
-      <c r="O52">
-        <v>-5.6432000000000002</v>
-      </c>
-      <c r="P52">
-        <v>87.445999999999998</v>
-      </c>
-      <c r="Q52">
-        <v>-3.7000999999999999</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>22</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>215.34450000000001</v>
+        <v>215.34449799999999</v>
       </c>
       <c r="C53">
-        <v>84.426000000000002</v>
+        <v>70.195899999999995</v>
       </c>
       <c r="D53">
-        <v>-5.3112000000000004</v>
+        <v>-4.3755755399999998</v>
       </c>
       <c r="E53">
-        <v>84.593000000000004</v>
+        <v>70.332138099999995</v>
       </c>
       <c r="F53">
-        <v>-3.5996999999999999</v>
+        <v>-3.5668478000000001</v>
       </c>
       <c r="G53">
         <v>2.3144</v>
@@ -3685,52 +2915,22 @@
       <c r="K53">
         <v>11</v>
       </c>
-      <c r="M53">
-        <v>46.380270000000003</v>
-      </c>
-      <c r="N53">
-        <v>88.495000000000005</v>
-      </c>
-      <c r="O53">
-        <v>-6.1661000000000001</v>
-      </c>
-      <c r="P53">
-        <v>88.709000000000003</v>
-      </c>
-      <c r="Q53">
-        <v>-3.9857999999999998</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>23</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>146.7373</v>
+        <v>146.737289</v>
       </c>
       <c r="C54">
-        <v>85.317999999999998</v>
+        <v>70.930519099999998</v>
       </c>
       <c r="D54">
-        <v>-5.2138999999999998</v>
+        <v>-4.6877455699999997</v>
       </c>
       <c r="E54">
-        <v>85.477000000000004</v>
+        <v>71.085258499999995</v>
       </c>
       <c r="F54">
-        <v>-3.4971000000000001</v>
+        <v>-3.7811367499999999</v>
       </c>
       <c r="G54">
         <v>2.3144</v>
@@ -3747,52 +2947,22 @@
       <c r="K54">
         <v>11</v>
       </c>
-      <c r="M54">
-        <v>31.586919999999999</v>
-      </c>
-      <c r="N54">
-        <v>89.881</v>
-      </c>
-      <c r="O54">
-        <v>-6.8281000000000001</v>
-      </c>
-      <c r="P54">
-        <v>90.14</v>
-      </c>
-      <c r="Q54">
-        <v>-4.3442999999999996</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>24</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>99.904039999999995</v>
+        <v>99.904037500000001</v>
       </c>
       <c r="C55">
-        <v>86.212999999999994</v>
+        <v>71.745735199999999</v>
       </c>
       <c r="D55">
-        <v>-5.2887000000000004</v>
+        <v>-5.2938957200000001</v>
       </c>
       <c r="E55">
-        <v>86.375</v>
+        <v>71.940780599999997</v>
       </c>
       <c r="F55">
-        <v>-3.5104000000000002</v>
+        <v>-4.2200307800000001</v>
       </c>
       <c r="G55">
         <v>2.3144</v>
@@ -3809,52 +2979,22 @@
       <c r="K55">
         <v>11</v>
       </c>
-      <c r="M55">
-        <v>21.522040000000001</v>
-      </c>
-      <c r="N55">
-        <v>91.447999999999993</v>
-      </c>
-      <c r="O55">
-        <v>-7.6254999999999997</v>
-      </c>
-      <c r="P55">
-        <v>91.765000000000001</v>
-      </c>
-      <c r="Q55">
-        <v>-4.7667000000000002</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>25</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>68.188900000000004</v>
+        <v>68.188896200000002</v>
       </c>
       <c r="C56">
-        <v>87.230999999999995</v>
+        <v>72.684028600000005</v>
       </c>
       <c r="D56">
-        <v>-5.6139999999999999</v>
+        <v>-6.2162094100000003</v>
       </c>
       <c r="E56">
-        <v>87.412000000000006</v>
+        <v>72.949363700000006</v>
       </c>
       <c r="F56">
-        <v>-3.6823000000000001</v>
+        <v>-4.88825369</v>
       </c>
       <c r="G56">
         <v>2.3144</v>
@@ -3871,52 +3011,22 @@
       <c r="K56">
         <v>11</v>
       </c>
-      <c r="M56">
-        <v>14.68515</v>
-      </c>
-      <c r="N56">
-        <v>93.213999999999999</v>
-      </c>
-      <c r="O56">
-        <v>-8.5577000000000005</v>
-      </c>
-      <c r="P56">
-        <v>93.605999999999995</v>
-      </c>
-      <c r="Q56">
-        <v>-5.2454999999999998</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>26</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>46.380270000000003</v>
+        <v>46.380268100000002</v>
       </c>
       <c r="C57">
-        <v>88.372</v>
+        <v>73.905998199999999</v>
       </c>
       <c r="D57">
-        <v>-6.1748000000000003</v>
+        <v>-7.4313120799999997</v>
       </c>
       <c r="E57">
-        <v>88.587000000000003</v>
+        <v>74.278671299999999</v>
       </c>
       <c r="F57">
-        <v>-3.9969000000000001</v>
+        <v>-5.7418413199999998</v>
       </c>
       <c r="G57">
         <v>2.3144</v>
@@ -3933,52 +3043,22 @@
       <c r="K57">
         <v>11</v>
       </c>
-      <c r="M57">
-        <v>9.9904109999999999</v>
-      </c>
-      <c r="N57">
-        <v>95.228999999999999</v>
-      </c>
-      <c r="O57">
-        <v>-9.6432000000000002</v>
-      </c>
-      <c r="P57">
-        <v>95.715999999999994</v>
-      </c>
-      <c r="Q57">
-        <v>-5.7821999999999996</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>27</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>31.586919999999999</v>
+        <v>31.586921700000001</v>
       </c>
       <c r="C58">
-        <v>89.673000000000002</v>
+        <v>75.387611399999997</v>
       </c>
       <c r="D58">
-        <v>-6.8109999999999999</v>
+        <v>-9.0243396800000006</v>
       </c>
       <c r="E58">
-        <v>89.930999999999997</v>
+        <v>75.925826999999998</v>
       </c>
       <c r="F58">
-        <v>-4.3434999999999997</v>
+        <v>-6.8261594800000003</v>
       </c>
       <c r="G58">
         <v>2.3144</v>
@@ -3996,21 +3076,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>21.522040000000001</v>
+        <v>21.5220375</v>
       </c>
       <c r="C59">
-        <v>91.259</v>
+        <v>77.188339200000001</v>
       </c>
       <c r="D59">
-        <v>-7.6600999999999999</v>
+        <v>-11.148417500000001</v>
       </c>
       <c r="E59">
-        <v>91.578999999999994</v>
+        <v>77.989273100000005</v>
       </c>
       <c r="F59">
-        <v>-4.7980999999999998</v>
+        <v>-8.2184753399999995</v>
       </c>
       <c r="G59">
         <v>2.3144</v>
@@ -4028,21 +3108,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>14.68515</v>
+        <v>14.6851501</v>
       </c>
       <c r="C60">
-        <v>93.051000000000002</v>
+        <v>79.419753999999998</v>
       </c>
       <c r="D60">
-        <v>-8.5713000000000008</v>
+        <v>-13.8028984</v>
       </c>
       <c r="E60">
-        <v>93.444999999999993</v>
+        <v>80.610282900000001</v>
       </c>
       <c r="F60">
-        <v>-5.2629000000000001</v>
+        <v>-9.8593416200000004</v>
       </c>
       <c r="G60">
         <v>2.3144</v>
@@ -4060,21 +3140,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>9.9904109999999999</v>
+        <v>9.9904107999999994</v>
       </c>
       <c r="C61">
-        <v>95.311999999999998</v>
+        <v>82.129264800000001</v>
       </c>
       <c r="D61">
-        <v>-9.6622000000000003</v>
+        <v>-16.997404100000001</v>
       </c>
       <c r="E61">
-        <v>95.801000000000002</v>
+        <v>83.869705199999999</v>
       </c>
       <c r="F61">
-        <v>-5.7885</v>
+        <v>-11.6928091</v>
       </c>
       <c r="G61">
         <v>2.3144</v>
@@ -4092,21 +3172,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>6.8171900000000001</v>
+        <v>6.8171896900000002</v>
       </c>
       <c r="C62">
-        <v>97.875</v>
+        <v>85.529128999999998</v>
       </c>
       <c r="D62">
-        <v>-10.337999999999999</v>
+        <v>-21.624689100000001</v>
       </c>
       <c r="E62">
-        <v>98.42</v>
+        <v>88.220512400000004</v>
       </c>
       <c r="F62">
-        <v>-6.0297000000000001</v>
+        <v>-14.1889772</v>
       </c>
       <c r="G62">
         <v>2.3144</v>
@@ -4122,6 +3202,91 @@
       </c>
       <c r="K62">
         <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>4.6392512300000002</v>
+      </c>
+      <c r="C63">
+        <v>88.984367399999996</v>
+      </c>
+      <c r="D63">
+        <v>-26.2482243</v>
+      </c>
+      <c r="E63">
+        <v>92.774925199999998</v>
+      </c>
+      <c r="F63">
+        <v>-16.4347782</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>3.1603958599999999</v>
+      </c>
+      <c r="C64">
+        <v>94.1628647</v>
+      </c>
+      <c r="D64">
+        <v>-33.331226299999997</v>
+      </c>
+      <c r="E64">
+        <v>99.888015699999997</v>
+      </c>
+      <c r="F64">
+        <v>-19.492650999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>2.1522038000000001</v>
+      </c>
+      <c r="C65">
+        <v>102.889915</v>
+      </c>
+      <c r="D65">
+        <v>-42.998691600000001</v>
+      </c>
+      <c r="E65">
+        <v>111.513329</v>
+      </c>
+      <c r="F65">
+        <v>-22.6805229</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>1.4663097899999999</v>
+      </c>
+      <c r="C66">
+        <v>111.78733800000001</v>
+      </c>
+      <c r="D66">
+        <v>-58.762134600000003</v>
+      </c>
+      <c r="E66">
+        <v>126.290924</v>
+      </c>
+      <c r="F66">
+        <v>-27.7291107</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0.99852979200000003</v>
+      </c>
+      <c r="C67">
+        <v>121.04549400000001</v>
+      </c>
+      <c r="D67">
+        <v>-74.595062299999995</v>
+      </c>
+      <c r="E67">
+        <v>142.18450899999999</v>
+      </c>
+      <c r="F67">
+        <v>-31.643720600000002</v>
       </c>
     </row>
   </sheetData>
@@ -4129,4 +3294,2295 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:V40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V4" sqref="V4:V40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1000024.25</v>
+      </c>
+      <c r="C4">
+        <v>30.360261900000001</v>
+      </c>
+      <c r="D4">
+        <v>-4.4180474299999997</v>
+      </c>
+      <c r="E4">
+        <v>30.6800365</v>
+      </c>
+      <c r="F4">
+        <v>8.2796068199999997</v>
+      </c>
+      <c r="G4">
+        <v>3224.0383000000002</v>
+      </c>
+      <c r="H4">
+        <v>2.6730000999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.87721621999999999</v>
+      </c>
+      <c r="J4">
+        <v>-3.6022946200000003E-2</v>
+      </c>
+      <c r="K4">
+        <v>-7.4701313900000003E-4</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>8.3649234100000003E-4</v>
+      </c>
+      <c r="O4" s="8">
+        <v>2.72650377E-5</v>
+      </c>
+      <c r="P4">
+        <v>3.2254759199999997E-2</v>
+      </c>
+      <c r="Q4">
+        <v>-4.69373632E-3</v>
+      </c>
+      <c r="R4">
+        <v>3.25944871E-2</v>
+      </c>
+      <c r="S4">
+        <v>-8.2796068199999997</v>
+      </c>
+      <c r="V4">
+        <f>D4*(-1)</f>
+        <v>4.4180474299999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>681286.5</v>
+      </c>
+      <c r="C5">
+        <v>28.093370400000001</v>
+      </c>
+      <c r="D5">
+        <v>0.87304800699999996</v>
+      </c>
+      <c r="E5">
+        <v>28.106933600000001</v>
+      </c>
+      <c r="F5">
+        <v>-1.7799882899999999</v>
+      </c>
+      <c r="G5">
+        <v>3225.2703000000001</v>
+      </c>
+      <c r="H5">
+        <v>2.6733954</v>
+      </c>
+      <c r="I5">
+        <v>0.87108659700000002</v>
+      </c>
+      <c r="J5">
+        <v>0.26757910800000001</v>
+      </c>
+      <c r="K5">
+        <v>2.58167478E-4</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>3.6238327200000002E-3</v>
+      </c>
+      <c r="O5">
+        <v>1.2893020200000001E-4</v>
+      </c>
+      <c r="P5">
+        <v>3.5561244899999997E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.1051244799999999E-3</v>
+      </c>
+      <c r="R5">
+        <v>3.5578411099999999E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.7799882899999999</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V40" si="0">D5*(-1)</f>
+        <v>-0.87304800699999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>464160.125</v>
+      </c>
+      <c r="C6">
+        <v>28.6703644</v>
+      </c>
+      <c r="D6">
+        <v>2.9047184000000001</v>
+      </c>
+      <c r="E6">
+        <v>28.817132900000001</v>
+      </c>
+      <c r="F6">
+        <v>-5.7851429000000003</v>
+      </c>
+      <c r="G6">
+        <v>3225.5843</v>
+      </c>
+      <c r="H6">
+        <v>2.6735820800000001</v>
+      </c>
+      <c r="I6">
+        <v>0.87046802000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.118045181</v>
+      </c>
+      <c r="K6">
+        <v>1.19937444E-3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>9.8589612200000003E-3</v>
+      </c>
+      <c r="O6">
+        <v>3.42121522E-4</v>
+      </c>
+      <c r="P6">
+        <v>3.45248394E-2</v>
+      </c>
+      <c r="Q6">
+        <v>3.4978606299999999E-3</v>
+      </c>
+      <c r="R6">
+        <v>3.4701578300000001E-2</v>
+      </c>
+      <c r="S6">
+        <v>5.7851429000000003</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>-2.9047184000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>316223.09399999998</v>
+      </c>
+      <c r="C7">
+        <v>29.667715099999999</v>
+      </c>
+      <c r="D7">
+        <v>3.9527595</v>
+      </c>
+      <c r="E7">
+        <v>29.929878200000001</v>
+      </c>
+      <c r="F7">
+        <v>-7.5890727</v>
+      </c>
+      <c r="G7">
+        <v>3226.0003000000002</v>
+      </c>
+      <c r="H7">
+        <v>2.6737144000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.86821365399999995</v>
+      </c>
+      <c r="J7">
+        <v>0.12732866400000001</v>
+      </c>
+      <c r="K7">
+        <v>2.2208388E-3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>1.0154253800000001E-2</v>
+      </c>
+      <c r="O7">
+        <v>3.3926812499999998E-4</v>
+      </c>
+      <c r="P7">
+        <v>3.3118769499999999E-2</v>
+      </c>
+      <c r="Q7">
+        <v>4.4125588599999996E-3</v>
+      </c>
+      <c r="R7">
+        <v>3.3411428299999997E-2</v>
+      </c>
+      <c r="S7">
+        <v>7.5890727</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>-3.9527595</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>215441.859</v>
+      </c>
+      <c r="C8">
+        <v>30.836381899999999</v>
+      </c>
+      <c r="D8">
+        <v>4.7637386299999998</v>
+      </c>
+      <c r="E8">
+        <v>31.202173200000001</v>
+      </c>
+      <c r="F8">
+        <v>-8.78187943</v>
+      </c>
+      <c r="G8">
+        <v>3226.4162999999999</v>
+      </c>
+      <c r="H8">
+        <v>2.6737606500000002</v>
+      </c>
+      <c r="I8">
+        <v>0.865100384</v>
+      </c>
+      <c r="J8">
+        <v>0.15507511800000001</v>
+      </c>
+      <c r="K8">
+        <v>3.6146668699999999E-3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>1.01489211E-2</v>
+      </c>
+      <c r="O8">
+        <v>3.25263274E-4</v>
+      </c>
+      <c r="P8">
+        <v>3.1673327100000002E-2</v>
+      </c>
+      <c r="Q8">
+        <v>4.8930337700000002E-3</v>
+      </c>
+      <c r="R8">
+        <v>3.2049048699999999E-2</v>
+      </c>
+      <c r="S8">
+        <v>8.78187943</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>-4.7637386299999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>146777.32800000001</v>
+      </c>
+      <c r="C9">
+        <v>31.9830799</v>
+      </c>
+      <c r="D9">
+        <v>5.4837737100000004</v>
+      </c>
+      <c r="E9">
+        <v>32.449794799999999</v>
+      </c>
+      <c r="F9">
+        <v>-9.7292489999999994</v>
+      </c>
+      <c r="G9">
+        <v>3226.8323</v>
+      </c>
+      <c r="H9">
+        <v>2.67380357</v>
+      </c>
+      <c r="I9">
+        <v>0.86234295400000005</v>
+      </c>
+      <c r="J9">
+        <v>0.19773413200000001</v>
+      </c>
+      <c r="K9">
+        <v>5.6469868899999996E-3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>1.0139848999999999E-2</v>
+      </c>
+      <c r="O9">
+        <v>3.1247804900000001E-4</v>
+      </c>
+      <c r="P9">
+        <v>3.0373608699999999E-2</v>
+      </c>
+      <c r="Q9">
+        <v>5.2078156700000001E-3</v>
+      </c>
+      <c r="R9">
+        <v>3.0816836300000001E-2</v>
+      </c>
+      <c r="S9">
+        <v>9.7292489999999994</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>-5.4837737100000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>100024.406</v>
+      </c>
+      <c r="C10">
+        <v>33.181903800000001</v>
+      </c>
+      <c r="D10">
+        <v>6.2804112400000003</v>
+      </c>
+      <c r="E10">
+        <v>33.771026599999999</v>
+      </c>
+      <c r="F10">
+        <v>-10.717714300000001</v>
+      </c>
+      <c r="G10">
+        <v>3227.1462999999999</v>
+      </c>
+      <c r="H10">
+        <v>2.67386627</v>
+      </c>
+      <c r="I10">
+        <v>0.86015945699999996</v>
+      </c>
+      <c r="J10">
+        <v>0.25335302900000001</v>
+      </c>
+      <c r="K10">
+        <v>8.7622106099999996E-3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>1.0708252E-2</v>
+      </c>
+      <c r="O10">
+        <v>3.1708399200000001E-4</v>
+      </c>
+      <c r="P10">
+        <v>2.9094625299999999E-2</v>
+      </c>
+      <c r="Q10">
+        <v>5.50680328E-3</v>
+      </c>
+      <c r="R10">
+        <v>2.96111815E-2</v>
+      </c>
+      <c r="S10">
+        <v>10.717714300000001</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>-6.2804112400000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>68127.429699999993</v>
+      </c>
+      <c r="C11">
+        <v>34.474269900000003</v>
+      </c>
+      <c r="D11">
+        <v>7.6173701300000003</v>
+      </c>
+      <c r="E11">
+        <v>35.3058014</v>
+      </c>
+      <c r="F11">
+        <v>-12.459770199999999</v>
+      </c>
+      <c r="G11">
+        <v>3227.4603000000002</v>
+      </c>
+      <c r="H11">
+        <v>2.6738178700000002</v>
+      </c>
+      <c r="I11">
+        <v>0.85760325199999998</v>
+      </c>
+      <c r="J11">
+        <v>0.306685388</v>
+      </c>
+      <c r="K11">
+        <v>1.4276148799999999E-2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>1.0405978200000001E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.94738478E-4</v>
+      </c>
+      <c r="P11">
+        <v>2.7656864400000002E-2</v>
+      </c>
+      <c r="Q11">
+        <v>6.1110090500000004E-3</v>
+      </c>
+      <c r="R11">
+        <v>2.8323957699999999E-2</v>
+      </c>
+      <c r="S11">
+        <v>12.459770199999999</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>-7.6173701300000003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>46411.125</v>
+      </c>
+      <c r="C12">
+        <v>36.203174599999997</v>
+      </c>
+      <c r="D12">
+        <v>9.0479154600000005</v>
+      </c>
+      <c r="E12">
+        <v>37.316680900000001</v>
+      </c>
+      <c r="F12">
+        <v>-14.031955699999999</v>
+      </c>
+      <c r="G12">
+        <v>3227.7743</v>
+      </c>
+      <c r="H12">
+        <v>2.67382169</v>
+      </c>
+      <c r="I12">
+        <v>0.85500049600000005</v>
+      </c>
+      <c r="J12">
+        <v>0.37900900799999998</v>
+      </c>
+      <c r="K12">
+        <v>2.2281302100000001E-2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>1.03179393E-2</v>
+      </c>
+      <c r="O12">
+        <v>2.7649669199999999E-4</v>
+      </c>
+      <c r="P12">
+        <v>2.5998042900000001E-2</v>
+      </c>
+      <c r="Q12">
+        <v>6.4974431900000004E-3</v>
+      </c>
+      <c r="R12">
+        <v>2.6797667099999999E-2</v>
+      </c>
+      <c r="S12">
+        <v>14.031955699999999</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>-9.0479154600000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>31628.412100000001</v>
+      </c>
+      <c r="C13">
+        <v>38.590976699999999</v>
+      </c>
+      <c r="D13">
+        <v>10.9086885</v>
+      </c>
+      <c r="E13">
+        <v>40.103153200000001</v>
+      </c>
+      <c r="F13">
+        <v>-15.784249300000001</v>
+      </c>
+      <c r="G13">
+        <v>3228.0882999999999</v>
+      </c>
+      <c r="H13">
+        <v>2.67381263</v>
+      </c>
+      <c r="I13">
+        <v>0.85226356999999997</v>
+      </c>
+      <c r="J13">
+        <v>0.46128591899999999</v>
+      </c>
+      <c r="K13">
+        <v>3.4131724400000001E-2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>1.01463422E-2</v>
+      </c>
+      <c r="O13">
+        <v>2.5300608799999998E-4</v>
+      </c>
+      <c r="P13">
+        <v>2.3995438599999998E-2</v>
+      </c>
+      <c r="Q13">
+        <v>6.78290101E-3</v>
+      </c>
+      <c r="R13">
+        <v>2.49356944E-2</v>
+      </c>
+      <c r="S13">
+        <v>15.784249300000001</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>-10.9086885</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>21545.408200000002</v>
+      </c>
+      <c r="C14">
+        <v>41.647724199999999</v>
+      </c>
+      <c r="D14">
+        <v>12.6877069</v>
+      </c>
+      <c r="E14">
+        <v>43.537464100000001</v>
+      </c>
+      <c r="F14">
+        <v>-16.943014099999999</v>
+      </c>
+      <c r="G14">
+        <v>3228.3002999999999</v>
+      </c>
+      <c r="H14">
+        <v>2.6738104800000002</v>
+      </c>
+      <c r="I14">
+        <v>0.85031479600000004</v>
+      </c>
+      <c r="J14">
+        <v>0.58221346100000004</v>
+      </c>
+      <c r="K14">
+        <v>4.9444988400000001E-2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>1.07687153E-2</v>
+      </c>
+      <c r="O14">
+        <v>2.4734364699999998E-4</v>
+      </c>
+      <c r="P14">
+        <v>2.19717678E-2</v>
+      </c>
+      <c r="Q14">
+        <v>6.69355551E-3</v>
+      </c>
+      <c r="R14">
+        <v>2.2968724400000001E-2</v>
+      </c>
+      <c r="S14">
+        <v>16.943014099999999</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>-12.6877069</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14672.8496</v>
+      </c>
+      <c r="C15">
+        <v>45.662540399999997</v>
+      </c>
+      <c r="D15">
+        <v>14.082596799999999</v>
+      </c>
+      <c r="E15">
+        <v>47.7848015</v>
+      </c>
+      <c r="F15">
+        <v>-17.140071899999999</v>
+      </c>
+      <c r="G15">
+        <v>3228.7462999999998</v>
+      </c>
+      <c r="H15">
+        <v>2.6737978500000001</v>
+      </c>
+      <c r="I15">
+        <v>0.838921845</v>
+      </c>
+      <c r="J15">
+        <v>0.77023440600000004</v>
+      </c>
+      <c r="K15">
+        <v>6.6897340099999994E-2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <v>9.1053582700000007E-3</v>
+      </c>
+      <c r="O15">
+        <v>1.90549254E-4</v>
+      </c>
+      <c r="P15">
+        <v>1.99977197E-2</v>
+      </c>
+      <c r="Q15">
+        <v>6.1674150599999996E-3</v>
+      </c>
+      <c r="R15">
+        <v>2.0927155400000001E-2</v>
+      </c>
+      <c r="S15">
+        <v>17.140071899999999</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>-14.082596799999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>10015.270500000001</v>
+      </c>
+      <c r="C16">
+        <v>50.3735809</v>
+      </c>
+      <c r="D16">
+        <v>14.7589407</v>
+      </c>
+      <c r="E16">
+        <v>52.491180399999998</v>
+      </c>
+      <c r="F16">
+        <v>-16.330041900000001</v>
+      </c>
+      <c r="G16">
+        <v>3228.9985000000001</v>
+      </c>
+      <c r="H16">
+        <v>2.6738130999999998</v>
+      </c>
+      <c r="I16">
+        <v>0.83706432600000003</v>
+      </c>
+      <c r="J16">
+        <v>1.0767186900000001</v>
+      </c>
+      <c r="K16">
+        <v>8.5121631599999997E-2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>9.9783260400000007E-3</v>
+      </c>
+      <c r="O16">
+        <v>1.9009529199999999E-4</v>
+      </c>
+      <c r="P16">
+        <v>1.8282271900000001E-2</v>
+      </c>
+      <c r="Q16">
+        <v>5.35651762E-3</v>
+      </c>
+      <c r="R16">
+        <v>1.90508198E-2</v>
+      </c>
+      <c r="S16">
+        <v>16.330041900000001</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>-14.7589407</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>6856.0024400000002</v>
+      </c>
+      <c r="C17">
+        <v>55.139865899999997</v>
+      </c>
+      <c r="D17">
+        <v>14.1569252</v>
+      </c>
+      <c r="E17">
+        <v>56.928230300000003</v>
+      </c>
+      <c r="F17">
+        <v>-14.3994284</v>
+      </c>
+      <c r="G17">
+        <v>3229.3489</v>
+      </c>
+      <c r="H17">
+        <v>2.6738278900000001</v>
+      </c>
+      <c r="I17">
+        <v>0.83444029099999995</v>
+      </c>
+      <c r="J17">
+        <v>1.63975966</v>
+      </c>
+      <c r="K17">
+        <v>0.101405784</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>1.0247274299999999E-2</v>
+      </c>
+      <c r="O17">
+        <v>1.8000339300000001E-4</v>
+      </c>
+      <c r="P17">
+        <v>1.7014153300000001E-2</v>
+      </c>
+      <c r="Q17">
+        <v>4.3683112600000004E-3</v>
+      </c>
+      <c r="R17">
+        <v>1.7565976800000001E-2</v>
+      </c>
+      <c r="S17">
+        <v>14.3994284</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>-14.1569252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4642.4272499999997</v>
+      </c>
+      <c r="C18">
+        <v>59.361419699999999</v>
+      </c>
+      <c r="D18">
+        <v>12.4455557</v>
+      </c>
+      <c r="E18">
+        <v>60.652038599999997</v>
+      </c>
+      <c r="F18">
+        <v>-11.840972900000001</v>
+      </c>
+      <c r="G18">
+        <v>3229.8000999999999</v>
+      </c>
+      <c r="H18">
+        <v>2.6738192999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.830607235</v>
+      </c>
+      <c r="J18">
+        <v>2.75461388</v>
+      </c>
+      <c r="K18">
+        <v>0.115984112</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>9.6500217899999994E-3</v>
+      </c>
+      <c r="O18">
+        <v>1.5910465999999999E-4</v>
+      </c>
+      <c r="P18">
+        <v>1.61366537E-2</v>
+      </c>
+      <c r="Q18">
+        <v>3.3831675499999998E-3</v>
+      </c>
+      <c r="R18">
+        <v>1.6487492199999999E-2</v>
+      </c>
+      <c r="S18">
+        <v>11.840972900000001</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>-12.4455557</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3160.05566</v>
+      </c>
+      <c r="C19">
+        <v>62.367988599999997</v>
+      </c>
+      <c r="D19">
+        <v>10.4095373</v>
+      </c>
+      <c r="E19">
+        <v>63.230724299999999</v>
+      </c>
+      <c r="F19">
+        <v>-9.4756155</v>
+      </c>
+      <c r="G19">
+        <v>3230.2511</v>
+      </c>
+      <c r="H19">
+        <v>2.67382264</v>
+      </c>
+      <c r="I19">
+        <v>0.82662749300000005</v>
+      </c>
+      <c r="J19">
+        <v>4.8383130999999997</v>
+      </c>
+      <c r="K19">
+        <v>0.13112953299999999</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>9.9734216899999995E-3</v>
+      </c>
+      <c r="O19">
+        <v>1.5773062499999999E-4</v>
+      </c>
+      <c r="P19">
+        <v>1.55993113E-2</v>
+      </c>
+      <c r="Q19">
+        <v>2.6036051599999999E-3</v>
+      </c>
+      <c r="R19">
+        <v>1.5815096000000001E-2</v>
+      </c>
+      <c r="S19">
+        <v>9.4756155</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>-10.4095373</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2152.9328599999999</v>
+      </c>
+      <c r="C20">
+        <v>64.5579453</v>
+      </c>
+      <c r="D20">
+        <v>8.4516601599999994</v>
+      </c>
+      <c r="E20">
+        <v>65.108825699999997</v>
+      </c>
+      <c r="F20">
+        <v>-7.4585094500000002</v>
+      </c>
+      <c r="G20">
+        <v>3230.7026999999998</v>
+      </c>
+      <c r="H20">
+        <v>2.6738233600000001</v>
+      </c>
+      <c r="I20">
+        <v>0.82251733500000002</v>
+      </c>
+      <c r="J20">
+        <v>8.7467679999999994</v>
+      </c>
+      <c r="K20">
+        <v>0.14738453900000001</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>11</v>
+      </c>
+      <c r="N20">
+        <v>1.0114091400000001E-2</v>
+      </c>
+      <c r="O20">
+        <v>1.5534133100000001E-4</v>
+      </c>
+      <c r="P20">
+        <v>1.52289504E-2</v>
+      </c>
+      <c r="Q20">
+        <v>1.9937113399999999E-3</v>
+      </c>
+      <c r="R20">
+        <v>1.5358900700000001E-2</v>
+      </c>
+      <c r="S20">
+        <v>7.4585094500000002</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>-8.4516601599999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1468.5897199999999</v>
+      </c>
+      <c r="C21">
+        <v>66.020813000000004</v>
+      </c>
+      <c r="D21">
+        <v>6.8610148400000002</v>
+      </c>
+      <c r="E21">
+        <v>66.376357999999996</v>
+      </c>
+      <c r="F21">
+        <v>-5.9329953199999999</v>
+      </c>
+      <c r="G21">
+        <v>3231.1536999999998</v>
+      </c>
+      <c r="H21">
+        <v>2.6738247899999998</v>
+      </c>
+      <c r="I21">
+        <v>0.81838113099999998</v>
+      </c>
+      <c r="J21">
+        <v>15.795425399999999</v>
+      </c>
+      <c r="K21">
+        <v>0.16876453199999999</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11</v>
+      </c>
+      <c r="N21">
+        <v>1.0178435600000001E-2</v>
+      </c>
+      <c r="O21">
+        <v>1.53344299E-4</v>
+      </c>
+      <c r="P21">
+        <v>1.4984904800000001E-2</v>
+      </c>
+      <c r="Q21">
+        <v>1.55726145E-3</v>
+      </c>
+      <c r="R21">
+        <v>1.50656048E-2</v>
+      </c>
+      <c r="S21">
+        <v>5.9329953199999999</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>-6.8610148400000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>999.04040499999996</v>
+      </c>
+      <c r="C22">
+        <v>67.075309799999999</v>
+      </c>
+      <c r="D22">
+        <v>5.6977267300000003</v>
+      </c>
+      <c r="E22">
+        <v>67.316871599999999</v>
+      </c>
+      <c r="F22">
+        <v>-4.8553466800000002</v>
+      </c>
+      <c r="G22">
+        <v>3231.6046999999999</v>
+      </c>
+      <c r="H22">
+        <v>2.6738176299999998</v>
+      </c>
+      <c r="I22">
+        <v>0.81424200499999999</v>
+      </c>
+      <c r="J22">
+        <v>27.9598923</v>
+      </c>
+      <c r="K22">
+        <v>0.20030456799999999</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>1.02018891E-2</v>
+      </c>
+      <c r="O22">
+        <v>1.5155025199999999E-4</v>
+      </c>
+      <c r="P22">
+        <v>1.48018096E-2</v>
+      </c>
+      <c r="Q22">
+        <v>1.25734298E-3</v>
+      </c>
+      <c r="R22">
+        <v>1.4855116599999999E-2</v>
+      </c>
+      <c r="S22">
+        <v>4.8553466800000002</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>-5.6977267300000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>681.08966099999998</v>
+      </c>
+      <c r="C23">
+        <v>67.939277599999997</v>
+      </c>
+      <c r="D23">
+        <v>4.9208197599999997</v>
+      </c>
+      <c r="E23">
+        <v>68.117248500000002</v>
+      </c>
+      <c r="F23">
+        <v>-4.14268064</v>
+      </c>
+      <c r="G23">
+        <v>3232.0551</v>
+      </c>
+      <c r="H23">
+        <v>2.6738257399999998</v>
+      </c>
+      <c r="I23">
+        <v>0.81016767000000001</v>
+      </c>
+      <c r="J23">
+        <v>47.487396199999999</v>
+      </c>
+      <c r="K23">
+        <v>0.24782156899999999</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11</v>
+      </c>
+      <c r="N23">
+        <v>1.02171851E-2</v>
+      </c>
+      <c r="O23">
+        <v>1.4999409900000001E-4</v>
+      </c>
+      <c r="P23">
+        <v>1.46422125E-2</v>
+      </c>
+      <c r="Q23">
+        <v>1.06053066E-3</v>
+      </c>
+      <c r="R23">
+        <v>1.4680569100000001E-2</v>
+      </c>
+      <c r="S23">
+        <v>4.14268064</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>-4.9208197599999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>464.55389400000001</v>
+      </c>
+      <c r="C24">
+        <v>68.747337299999998</v>
+      </c>
+      <c r="D24">
+        <v>4.5110750199999998</v>
+      </c>
+      <c r="E24">
+        <v>68.8951797</v>
+      </c>
+      <c r="F24">
+        <v>-3.75426269</v>
+      </c>
+      <c r="G24">
+        <v>3232.5066999999999</v>
+      </c>
+      <c r="H24">
+        <v>2.6738259800000002</v>
+      </c>
+      <c r="I24">
+        <v>0.80605483099999997</v>
+      </c>
+      <c r="J24">
+        <v>75.945838899999998</v>
+      </c>
+      <c r="K24">
+        <v>0.32560151799999998</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11</v>
+      </c>
+      <c r="N24">
+        <v>1.02214431E-2</v>
+      </c>
+      <c r="O24">
+        <v>1.4836223299999999E-4</v>
+      </c>
+      <c r="P24">
+        <v>1.44836558E-2</v>
+      </c>
+      <c r="Q24">
+        <v>9.5039117200000005E-4</v>
+      </c>
+      <c r="R24">
+        <v>1.45148039E-2</v>
+      </c>
+      <c r="S24">
+        <v>3.75426269</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>-4.5110750199999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>316.315765</v>
+      </c>
+      <c r="C25">
+        <v>69.456352199999998</v>
+      </c>
+      <c r="D25">
+        <v>4.2898778899999996</v>
+      </c>
+      <c r="E25">
+        <v>69.588706999999999</v>
+      </c>
+      <c r="F25">
+        <v>-3.5343070000000001</v>
+      </c>
+      <c r="G25">
+        <v>3232.9555999999998</v>
+      </c>
+      <c r="H25">
+        <v>2.6738276499999998</v>
+      </c>
+      <c r="I25">
+        <v>0.80192124799999998</v>
+      </c>
+      <c r="J25">
+        <v>117.28821600000001</v>
+      </c>
+      <c r="K25">
+        <v>0.44572469599999998</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <v>1.02235451E-2</v>
+      </c>
+      <c r="O25">
+        <v>1.46913851E-4</v>
+      </c>
+      <c r="P25">
+        <v>1.4342816499999999E-2</v>
+      </c>
+      <c r="Q25">
+        <v>8.8586477800000002E-4</v>
+      </c>
+      <c r="R25">
+        <v>1.4370148100000001E-2</v>
+      </c>
+      <c r="S25">
+        <v>3.5343070000000001</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>-4.2898778899999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>215.34449799999999</v>
+      </c>
+      <c r="C26">
+        <v>70.195899999999995</v>
+      </c>
+      <c r="D26">
+        <v>4.3755755399999998</v>
+      </c>
+      <c r="E26">
+        <v>70.332138099999995</v>
+      </c>
+      <c r="F26">
+        <v>-3.5668478000000001</v>
+      </c>
+      <c r="G26">
+        <v>3233.4061000000002</v>
+      </c>
+      <c r="H26">
+        <v>2.6738259800000002</v>
+      </c>
+      <c r="I26">
+        <v>0.79793351899999998</v>
+      </c>
+      <c r="J26">
+        <v>168.908356</v>
+      </c>
+      <c r="K26">
+        <v>0.65375328099999996</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>11</v>
+      </c>
+      <c r="N26">
+        <v>1.02236606E-2</v>
+      </c>
+      <c r="O26">
+        <v>1.4536257399999999E-4</v>
+      </c>
+      <c r="P26">
+        <v>1.41907092E-2</v>
+      </c>
+      <c r="Q26">
+        <v>8.8456057700000003E-4</v>
+      </c>
+      <c r="R26">
+        <v>1.42182512E-2</v>
+      </c>
+      <c r="S26">
+        <v>3.5668478000000001</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>-4.3755755399999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>146.737289</v>
+      </c>
+      <c r="C27">
+        <v>70.930519099999998</v>
+      </c>
+      <c r="D27">
+        <v>4.6877455699999997</v>
+      </c>
+      <c r="E27">
+        <v>71.085258499999995</v>
+      </c>
+      <c r="F27">
+        <v>-3.7811367499999999</v>
+      </c>
+      <c r="G27">
+        <v>3233.8530999999998</v>
+      </c>
+      <c r="H27">
+        <v>2.6738312199999998</v>
+      </c>
+      <c r="I27">
+        <v>0.79397183699999996</v>
+      </c>
+      <c r="J27">
+        <v>231.37454199999999</v>
+      </c>
+      <c r="K27">
+        <v>1.00620055</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>1.02219693E-2</v>
+      </c>
+      <c r="O27">
+        <v>1.4379872300000001E-4</v>
+      </c>
+      <c r="P27">
+        <v>1.4036992599999999E-2</v>
+      </c>
+      <c r="Q27">
+        <v>9.2769437499999998E-4</v>
+      </c>
+      <c r="R27">
+        <v>1.4067614500000001E-2</v>
+      </c>
+      <c r="S27">
+        <v>3.7811367499999999</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>-4.6877455699999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>99.904037500000001</v>
+      </c>
+      <c r="C28">
+        <v>71.745735199999999</v>
+      </c>
+      <c r="D28">
+        <v>5.2938957200000001</v>
+      </c>
+      <c r="E28">
+        <v>71.940780599999997</v>
+      </c>
+      <c r="F28">
+        <v>-4.2200307800000001</v>
+      </c>
+      <c r="G28">
+        <v>3234.3045999999999</v>
+      </c>
+      <c r="H28">
+        <v>2.6738238299999999</v>
+      </c>
+      <c r="I28">
+        <v>0.78991144899999999</v>
+      </c>
+      <c r="J28">
+        <v>300.92739899999998</v>
+      </c>
+      <c r="K28">
+        <v>1.62952936</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>1.0221472000000001E-2</v>
+      </c>
+      <c r="O28">
+        <v>1.4208175699999999E-4</v>
+      </c>
+      <c r="P28">
+        <v>1.38626359E-2</v>
+      </c>
+      <c r="Q28">
+        <v>1.02288101E-3</v>
+      </c>
+      <c r="R28">
+        <v>1.39003219E-2</v>
+      </c>
+      <c r="S28">
+        <v>4.2200307800000001</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>-5.2938957200000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>68.188896200000002</v>
+      </c>
+      <c r="C29">
+        <v>72.684028600000005</v>
+      </c>
+      <c r="D29">
+        <v>6.2162094100000003</v>
+      </c>
+      <c r="E29">
+        <v>72.949363700000006</v>
+      </c>
+      <c r="F29">
+        <v>-4.88825369</v>
+      </c>
+      <c r="G29">
+        <v>3234.7667999999999</v>
+      </c>
+      <c r="H29">
+        <v>2.67382813</v>
+      </c>
+      <c r="I29">
+        <v>0.78584939200000004</v>
+      </c>
+      <c r="J29">
+        <v>375.47482300000001</v>
+      </c>
+      <c r="K29">
+        <v>2.7263967999999998</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11</v>
+      </c>
+      <c r="N29">
+        <v>1.02184489E-2</v>
+      </c>
+      <c r="O29">
+        <v>1.4007592100000001E-4</v>
+      </c>
+      <c r="P29">
+        <v>1.36582796E-2</v>
+      </c>
+      <c r="Q29">
+        <v>1.1681069199999999E-3</v>
+      </c>
+      <c r="R29">
+        <v>1.37081388E-2</v>
+      </c>
+      <c r="S29">
+        <v>4.88825369</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>-6.2162094100000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>46.380268100000002</v>
+      </c>
+      <c r="C30">
+        <v>73.905998199999999</v>
+      </c>
+      <c r="D30">
+        <v>7.4313120799999997</v>
+      </c>
+      <c r="E30">
+        <v>74.278671299999999</v>
+      </c>
+      <c r="F30">
+        <v>-5.7418413199999998</v>
+      </c>
+      <c r="G30">
+        <v>3235.2055</v>
+      </c>
+      <c r="H30">
+        <v>2.6738250300000002</v>
+      </c>
+      <c r="I30">
+        <v>0.78164839699999999</v>
+      </c>
+      <c r="J30">
+        <v>461.76535000000001</v>
+      </c>
+      <c r="K30">
+        <v>4.6219377499999998</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>1.02201533E-2</v>
+      </c>
+      <c r="O30">
+        <v>1.37592026E-4</v>
+      </c>
+      <c r="P30">
+        <v>1.33952685E-2</v>
+      </c>
+      <c r="Q30">
+        <v>1.34690583E-3</v>
+      </c>
+      <c r="R30">
+        <v>1.34628145E-2</v>
+      </c>
+      <c r="S30">
+        <v>5.7418413199999998</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="0"/>
+        <v>-7.4313120799999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>31.586921700000001</v>
+      </c>
+      <c r="C31">
+        <v>75.387611399999997</v>
+      </c>
+      <c r="D31">
+        <v>9.0243396800000006</v>
+      </c>
+      <c r="E31">
+        <v>75.925826999999998</v>
+      </c>
+      <c r="F31">
+        <v>-6.8261594800000003</v>
+      </c>
+      <c r="G31">
+        <v>3235.6354000000001</v>
+      </c>
+      <c r="H31">
+        <v>2.67382264</v>
+      </c>
+      <c r="I31">
+        <v>0.77791011300000001</v>
+      </c>
+      <c r="J31">
+        <v>558.338257</v>
+      </c>
+      <c r="K31">
+        <v>7.88767862</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11</v>
+      </c>
+      <c r="N31">
+        <v>1.0220142999999999E-2</v>
+      </c>
+      <c r="O31">
+        <v>1.3460693299999999E-4</v>
+      </c>
+      <c r="P31">
+        <v>1.3077385699999999E-2</v>
+      </c>
+      <c r="Q31">
+        <v>1.5654398600000001E-3</v>
+      </c>
+      <c r="R31">
+        <v>1.3170748899999999E-2</v>
+      </c>
+      <c r="S31">
+        <v>6.8261594800000003</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>-9.0243396800000006</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>21.5220375</v>
+      </c>
+      <c r="C32">
+        <v>77.188339200000001</v>
+      </c>
+      <c r="D32">
+        <v>11.148417500000001</v>
+      </c>
+      <c r="E32">
+        <v>77.989273100000005</v>
+      </c>
+      <c r="F32">
+        <v>-8.2184753399999995</v>
+      </c>
+      <c r="G32">
+        <v>3236.0572999999999</v>
+      </c>
+      <c r="H32">
+        <v>2.6738240700000002</v>
+      </c>
+      <c r="I32">
+        <v>0.77396595499999998</v>
+      </c>
+      <c r="J32">
+        <v>663.32067900000004</v>
+      </c>
+      <c r="K32">
+        <v>13.5543985</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>11</v>
+      </c>
+      <c r="N32">
+        <v>1.0222869000000001E-2</v>
+      </c>
+      <c r="O32">
+        <v>1.3108045100000001E-4</v>
+      </c>
+      <c r="P32">
+        <v>1.26905935E-2</v>
+      </c>
+      <c r="Q32">
+        <v>1.83291978E-3</v>
+      </c>
+      <c r="R32">
+        <v>1.2822276000000001E-2</v>
+      </c>
+      <c r="S32">
+        <v>8.2184753399999995</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="0"/>
+        <v>-11.148417500000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>14.6851501</v>
+      </c>
+      <c r="C33">
+        <v>79.419753999999998</v>
+      </c>
+      <c r="D33">
+        <v>13.8028984</v>
+      </c>
+      <c r="E33">
+        <v>80.610282900000001</v>
+      </c>
+      <c r="F33">
+        <v>-9.8593416200000004</v>
+      </c>
+      <c r="G33">
+        <v>3236.5176999999999</v>
+      </c>
+      <c r="H33">
+        <v>2.6738266899999998</v>
+      </c>
+      <c r="I33">
+        <v>0.77018839100000003</v>
+      </c>
+      <c r="J33">
+        <v>785.18402100000003</v>
+      </c>
+      <c r="K33">
+        <v>23.0213699</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>11</v>
+      </c>
+      <c r="N33">
+        <v>1.02232704E-2</v>
+      </c>
+      <c r="O33">
+        <v>1.2682340500000001E-4</v>
+      </c>
+      <c r="P33">
+        <v>1.2222151299999999E-2</v>
+      </c>
+      <c r="Q33">
+        <v>2.1241705399999999E-3</v>
+      </c>
+      <c r="R33">
+        <v>1.2405364800000001E-2</v>
+      </c>
+      <c r="S33">
+        <v>9.8593416200000004</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="0"/>
+        <v>-13.8028984</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>9.9904107999999994</v>
+      </c>
+      <c r="C34">
+        <v>82.129264800000001</v>
+      </c>
+      <c r="D34">
+        <v>16.997404100000001</v>
+      </c>
+      <c r="E34">
+        <v>83.869705199999999</v>
+      </c>
+      <c r="F34">
+        <v>-11.6928091</v>
+      </c>
+      <c r="G34">
+        <v>3236.9686999999999</v>
+      </c>
+      <c r="H34">
+        <v>2.6738286000000002</v>
+      </c>
+      <c r="I34">
+        <v>0.76607680300000003</v>
+      </c>
+      <c r="J34">
+        <v>937.247253</v>
+      </c>
+      <c r="K34">
+        <v>38.495426199999997</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>11</v>
+      </c>
+      <c r="N34">
+        <v>1.0224408500000001E-2</v>
+      </c>
+      <c r="O34">
+        <v>1.21908241E-4</v>
+      </c>
+      <c r="P34">
+        <v>1.1675828100000001E-2</v>
+      </c>
+      <c r="Q34">
+        <v>2.4164195599999999E-3</v>
+      </c>
+      <c r="R34">
+        <v>1.1923256300000001E-2</v>
+      </c>
+      <c r="S34">
+        <v>11.6928091</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="0"/>
+        <v>-16.997404100000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>6.8171896900000002</v>
+      </c>
+      <c r="C35">
+        <v>85.529128999999998</v>
+      </c>
+      <c r="D35">
+        <v>21.624689100000001</v>
+      </c>
+      <c r="E35">
+        <v>88.220512400000004</v>
+      </c>
+      <c r="F35">
+        <v>-14.1889772</v>
+      </c>
+      <c r="G35">
+        <v>3237.3081000000002</v>
+      </c>
+      <c r="H35">
+        <v>2.6738231200000002</v>
+      </c>
+      <c r="I35">
+        <v>0.76369589599999999</v>
+      </c>
+      <c r="J35">
+        <v>1079.6049800000001</v>
+      </c>
+      <c r="K35">
+        <v>64.867248500000002</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>11</v>
+      </c>
+      <c r="N35">
+        <v>1.0223266700000001E-2</v>
+      </c>
+      <c r="O35">
+        <v>1.158831E-4</v>
+      </c>
+      <c r="P35">
+        <v>1.09894229E-2</v>
+      </c>
+      <c r="Q35">
+        <v>2.7785021800000001E-3</v>
+      </c>
+      <c r="R35">
+        <v>1.1335232299999999E-2</v>
+      </c>
+      <c r="S35">
+        <v>14.1889772</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="0"/>
+        <v>-21.624689100000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>4.6392512300000002</v>
+      </c>
+      <c r="C36">
+        <v>88.984367399999996</v>
+      </c>
+      <c r="D36">
+        <v>26.2482243</v>
+      </c>
+      <c r="E36">
+        <v>92.774925199999998</v>
+      </c>
+      <c r="F36">
+        <v>-16.4347782</v>
+      </c>
+      <c r="G36">
+        <v>3237.7930000000001</v>
+      </c>
+      <c r="H36">
+        <v>2.67382908</v>
+      </c>
+      <c r="I36">
+        <v>0.759131789</v>
+      </c>
+      <c r="J36">
+        <v>1306.99011</v>
+      </c>
+      <c r="K36">
+        <v>104.619095</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11</v>
+      </c>
+      <c r="N36">
+        <v>1.0220810800000001E-2</v>
+      </c>
+      <c r="O36">
+        <v>1.10167814E-4</v>
+      </c>
+      <c r="P36">
+        <v>1.0338379999999999E-2</v>
+      </c>
+      <c r="Q36">
+        <v>3.0495708299999999E-3</v>
+      </c>
+      <c r="R36">
+        <v>1.0778774499999999E-2</v>
+      </c>
+      <c r="S36">
+        <v>16.4347782</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="0"/>
+        <v>-26.2482243</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>3.1603958599999999</v>
+      </c>
+      <c r="C37">
+        <v>94.1628647</v>
+      </c>
+      <c r="D37">
+        <v>33.331226299999997</v>
+      </c>
+      <c r="E37">
+        <v>99.888015699999997</v>
+      </c>
+      <c r="F37">
+        <v>-19.492650999999999</v>
+      </c>
+      <c r="G37">
+        <v>3238.4870000000001</v>
+      </c>
+      <c r="H37">
+        <v>2.67383075</v>
+      </c>
+      <c r="I37">
+        <v>0.75365984399999997</v>
+      </c>
+      <c r="J37">
+        <v>1510.87085</v>
+      </c>
+      <c r="K37">
+        <v>168.22988900000001</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11</v>
+      </c>
+      <c r="N37">
+        <v>1.02214869E-2</v>
+      </c>
+      <c r="O37">
+        <v>1.02329461E-4</v>
+      </c>
+      <c r="P37">
+        <v>9.4374110900000002E-3</v>
+      </c>
+      <c r="Q37">
+        <v>3.3406005200000001E-3</v>
+      </c>
+      <c r="R37">
+        <v>1.0011211000000001E-2</v>
+      </c>
+      <c r="S37">
+        <v>19.492650999999999</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="0"/>
+        <v>-33.331226299999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2.1522038000000001</v>
+      </c>
+      <c r="C38">
+        <v>102.889915</v>
+      </c>
+      <c r="D38">
+        <v>42.998691600000001</v>
+      </c>
+      <c r="E38">
+        <v>111.513329</v>
+      </c>
+      <c r="F38">
+        <v>-22.6805229</v>
+      </c>
+      <c r="G38">
+        <v>3239.4922999999999</v>
+      </c>
+      <c r="H38">
+        <v>2.6738319399999999</v>
+      </c>
+      <c r="I38">
+        <v>0.74599289899999999</v>
+      </c>
+      <c r="J38">
+        <v>1719.8140900000001</v>
+      </c>
+      <c r="K38">
+        <v>255.70452900000001</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>11</v>
+      </c>
+      <c r="N38">
+        <v>1.02241421E-2</v>
+      </c>
+      <c r="O38" s="8">
+        <v>9.1685382399999999E-5</v>
+      </c>
+      <c r="P38">
+        <v>8.2740718500000001E-3</v>
+      </c>
+      <c r="Q38">
+        <v>3.4578146899999999E-3</v>
+      </c>
+      <c r="R38">
+        <v>8.9675383599999992E-3</v>
+      </c>
+      <c r="S38">
+        <v>22.6805229</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="0"/>
+        <v>-42.998691600000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1.4663097899999999</v>
+      </c>
+      <c r="C39">
+        <v>111.78733800000001</v>
+      </c>
+      <c r="D39">
+        <v>58.762134600000003</v>
+      </c>
+      <c r="E39">
+        <v>126.290924</v>
+      </c>
+      <c r="F39">
+        <v>-27.7291107</v>
+      </c>
+      <c r="G39">
+        <v>3240.9537</v>
+      </c>
+      <c r="H39">
+        <v>2.6738343200000001</v>
+      </c>
+      <c r="I39">
+        <v>0.73464709500000003</v>
+      </c>
+      <c r="J39">
+        <v>1847.1273200000001</v>
+      </c>
+      <c r="K39">
+        <v>399.89657599999998</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>11</v>
+      </c>
+      <c r="N39">
+        <v>1.0224917E-2</v>
+      </c>
+      <c r="O39" s="8">
+        <v>8.0963196500000005E-5</v>
+      </c>
+      <c r="P39">
+        <v>7.0088752500000002E-3</v>
+      </c>
+      <c r="Q39">
+        <v>3.6842858000000001E-3</v>
+      </c>
+      <c r="R39">
+        <v>7.9182256000000003E-3</v>
+      </c>
+      <c r="S39">
+        <v>27.7291107</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="0"/>
+        <v>-58.762134600000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.99852979200000003</v>
+      </c>
+      <c r="C40">
+        <v>121.04549400000001</v>
+      </c>
+      <c r="D40">
+        <v>74.595062299999995</v>
+      </c>
+      <c r="E40">
+        <v>142.18450899999999</v>
+      </c>
+      <c r="F40">
+        <v>-31.643720600000002</v>
+      </c>
+      <c r="G40">
+        <v>3243.0853999999999</v>
+      </c>
+      <c r="H40">
+        <v>2.6738355199999999</v>
+      </c>
+      <c r="I40">
+        <v>0.71859848500000001</v>
+      </c>
+      <c r="J40">
+        <v>2136.72705</v>
+      </c>
+      <c r="K40">
+        <v>588.11822500000005</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>11</v>
+      </c>
+      <c r="N40">
+        <v>1.0222015900000001E-2</v>
+      </c>
+      <c r="O40" s="8">
+        <v>7.1892609399999994E-5</v>
+      </c>
+      <c r="P40">
+        <v>5.9874793499999999E-3</v>
+      </c>
+      <c r="Q40">
+        <v>3.6898229700000002E-3</v>
+      </c>
+      <c r="R40">
+        <v>7.0331147900000003E-3</v>
+      </c>
+      <c r="S40">
+        <v>31.643720600000002</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="0"/>
+        <v>-74.595062299999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>